--- a/sampledata/sample_primary_cells.xlsx
+++ b/sampledata/sample_primary_cells.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="575">
   <si>
     <t>Facility ID</t>
   </si>
@@ -129,7 +129,7 @@
     <t>HMSL60001</t>
   </si>
   <si>
-    <t>5637</t>
+    <t>pc-name-1</t>
   </si>
   <si>
     <t>LPC1</t>
@@ -210,7 +210,7 @@
     <t>HMSL60002</t>
   </si>
   <si>
-    <t>647-V</t>
+    <t>pc-name-2</t>
   </si>
   <si>
     <t>LPC2</t>
@@ -282,7 +282,7 @@
     <t>HMSL60003</t>
   </si>
   <si>
-    <t>A375.S2</t>
+    <t>pc-name-3</t>
   </si>
   <si>
     <t>LPC3</t>
@@ -345,7 +345,10 @@
     <t>HMSL60004</t>
   </si>
   <si>
-    <t>AGS</t>
+    <t>pc-name-4</t>
+  </si>
+  <si>
+    <t>LPC4</t>
   </si>
   <si>
     <t>stomach</t>
@@ -402,7 +405,10 @@
     <t>HMSL60005</t>
   </si>
   <si>
-    <t>BPH-1</t>
+    <t>pc-name-5</t>
+  </si>
+  <si>
+    <t>LPC5</t>
   </si>
   <si>
     <t>prostate</t>
@@ -462,7 +468,10 @@
     <t>HMSL60006</t>
   </si>
   <si>
-    <t>Ca Ski</t>
+    <t>pc-name-6</t>
+  </si>
+  <si>
+    <t>LPC6</t>
   </si>
   <si>
     <t>cervix</t>
@@ -519,7 +528,10 @@
     <t>HMSL60007</t>
   </si>
   <si>
-    <t>Ca9-22</t>
+    <t>pc-name-7</t>
+  </si>
+  <si>
+    <t>LPC7</t>
   </si>
   <si>
     <t>head &amp; neck</t>
@@ -576,7 +588,10 @@
     <t>HMSL60008</t>
   </si>
   <si>
-    <t>CAL-51</t>
+    <t>pc-name-8</t>
+  </si>
+  <si>
+    <t>LPC8</t>
   </si>
   <si>
     <t>breast</t>
@@ -633,7 +648,10 @@
     <t>HMSL60009</t>
   </si>
   <si>
-    <t>Calu-1</t>
+    <t>pc-name-9</t>
+  </si>
+  <si>
+    <t>LPC9</t>
   </si>
   <si>
     <t>lung</t>
@@ -690,7 +708,10 @@
     <t>HMSL60010</t>
   </si>
   <si>
-    <t>Calu-3</t>
+    <t>pc-name-10</t>
+  </si>
+  <si>
+    <t>LPC10</t>
   </si>
   <si>
     <t>GC1132</t>
@@ -744,7 +765,10 @@
     <t>HMSL60011</t>
   </si>
   <si>
-    <t>COLO-679</t>
+    <t>pc-name-11</t>
+  </si>
+  <si>
+    <t>LPC11</t>
   </si>
   <si>
     <t>fibroblastic</t>
@@ -801,7 +825,10 @@
     <t>HMSL60012</t>
   </si>
   <si>
-    <t>COLO-800</t>
+    <t>pc-name-12</t>
+  </si>
+  <si>
+    <t>LPC12</t>
   </si>
   <si>
     <t>GC1134</t>
@@ -855,7 +882,10 @@
     <t>HMSL60013</t>
   </si>
   <si>
-    <t>FU97</t>
+    <t>pc-name-13</t>
+  </si>
+  <si>
+    <t>LPC13</t>
   </si>
   <si>
     <t>GC1135</t>
@@ -909,7 +939,10 @@
     <t>HMSL60014</t>
   </si>
   <si>
-    <t>HEC-1</t>
+    <t>pc-name-14</t>
+  </si>
+  <si>
+    <t>LPC14</t>
   </si>
   <si>
     <t>uterus</t>
@@ -966,7 +999,10 @@
     <t>HMSL60015</t>
   </si>
   <si>
-    <t>HLF</t>
+    <t>pc-name-15</t>
+  </si>
+  <si>
+    <t>LPC15</t>
   </si>
   <si>
     <t>liver</t>
@@ -1023,7 +1059,10 @@
     <t>HMSL60016</t>
   </si>
   <si>
-    <t>HUTU-80</t>
+    <t>pc-name-16</t>
+  </si>
+  <si>
+    <t>LPC16</t>
   </si>
   <si>
     <t>intestine</t>
@@ -1080,7 +1119,10 @@
     <t>HMSL60017</t>
   </si>
   <si>
-    <t>IA-LM</t>
+    <t>pc-name-17</t>
+  </si>
+  <si>
+    <t>LPC17</t>
   </si>
   <si>
     <t>GC1139</t>
@@ -1134,7 +1176,10 @@
     <t>HMSL60018</t>
   </si>
   <si>
-    <t>Ishikawa</t>
+    <t>pc-name-18</t>
+  </si>
+  <si>
+    <t>LPC18</t>
   </si>
   <si>
     <t>GC1140</t>
@@ -1188,7 +1233,10 @@
     <t>HMSL60019</t>
   </si>
   <si>
-    <t>Ishikawa (Heraklio) 02 ER-</t>
+    <t>pc-name-19</t>
+  </si>
+  <si>
+    <t>LPC19</t>
   </si>
   <si>
     <t>GC1141</t>
@@ -1242,7 +1290,10 @@
     <t>HMSL60020</t>
   </si>
   <si>
-    <t>IST-MEL1</t>
+    <t>pc-name-20</t>
+  </si>
+  <si>
+    <t>LPC20</t>
   </si>
   <si>
     <t>GC1142</t>
@@ -1296,7 +1347,10 @@
     <t>HMSL60021</t>
   </si>
   <si>
-    <t>JHH-6</t>
+    <t>pc-name-21</t>
+  </si>
+  <si>
+    <t>LPC21</t>
   </si>
   <si>
     <t>GC1143</t>
@@ -1350,7 +1404,10 @@
     <t>HMSL60022</t>
   </si>
   <si>
-    <t>KATO III</t>
+    <t>pc-name-22</t>
+  </si>
+  <si>
+    <t>LPC22</t>
   </si>
   <si>
     <t>GC1144</t>
@@ -1404,7 +1461,10 @@
     <t>HMSL60023</t>
   </si>
   <si>
-    <t>KMRC-20</t>
+    <t>pc-name-23</t>
+  </si>
+  <si>
+    <t>LPC23</t>
   </si>
   <si>
     <t>GC1145</t>
@@ -1458,7 +1518,10 @@
     <t>HMSL60024</t>
   </si>
   <si>
-    <t>KYSE-140</t>
+    <t>pc-name-24</t>
+  </si>
+  <si>
+    <t>LPC24</t>
   </si>
   <si>
     <t>GC1146</t>
@@ -1512,7 +1575,10 @@
     <t>HMSL60025</t>
   </si>
   <si>
-    <t>KYSE-150</t>
+    <t>pc-name-25</t>
+  </si>
+  <si>
+    <t>LPC25</t>
   </si>
   <si>
     <t>GC1147</t>
@@ -1566,7 +1632,10 @@
     <t>HMSL60026</t>
   </si>
   <si>
-    <t>KYSE-180</t>
+    <t>pc-name-26</t>
+  </si>
+  <si>
+    <t>LPC26</t>
   </si>
   <si>
     <t>GC1148</t>
@@ -1620,7 +1689,10 @@
     <t>HMSL60027</t>
   </si>
   <si>
-    <t>xxxx</t>
+    <t>pc-name-27</t>
+  </si>
+  <si>
+    <t>LPC27</t>
   </si>
   <si>
     <t>GC1149</t>
@@ -1796,8 +1868,8 @@
   </sheetPr>
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2243,11 +2315,14 @@
       <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>42</v>
@@ -2259,25 +2334,25 @@
         <v>69</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>4</v>
@@ -2289,37 +2364,37 @@
         <v>5</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF5" s="5" t="s">
         <v>62</v>
@@ -2339,19 +2414,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>43</v>
@@ -2360,25 +2438,25 @@
         <v>44</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>12</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>5</v>
@@ -2390,37 +2468,37 @@
         <v>6</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF6" s="5" t="s">
         <v>62</v>
@@ -2440,16 +2518,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>42</v>
@@ -2461,25 +2542,25 @@
         <v>69</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>6</v>
@@ -2491,37 +2572,37 @@
         <v>7</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AF7" s="5" t="s">
         <v>62</v>
@@ -2541,16 +2622,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>67</v>
@@ -2562,25 +2646,25 @@
         <v>44</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>7</v>
@@ -2592,37 +2676,37 @@
         <v>8</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>62</v>
@@ -2642,16 +2726,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>191</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>67</v>
@@ -2663,25 +2750,25 @@
         <v>69</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>8</v>
@@ -2693,37 +2780,37 @@
         <v>9</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AF9" s="5" t="s">
         <v>62</v>
@@ -2743,16 +2830,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>42</v>
@@ -2764,25 +2854,25 @@
         <v>44</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>9</v>
@@ -2794,37 +2884,37 @@
         <v>10</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AF10" s="5" t="s">
         <v>62</v>
@@ -2844,16 +2934,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>231</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>42</v>
@@ -2865,25 +2958,25 @@
         <v>69</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>10</v>
@@ -2895,37 +2988,37 @@
         <v>11</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AF11" s="5" t="s">
         <v>62</v>
@@ -2945,10 +3038,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>40</v>
@@ -2957,7 +3053,7 @@
         <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>43</v>
@@ -2966,25 +3062,25 @@
         <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>11</v>
@@ -2996,37 +3092,37 @@
         <v>12</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AF12" s="5" t="s">
         <v>62</v>
@@ -3046,10 +3142,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>270</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>40</v>
@@ -3067,25 +3166,25 @@
         <v>69</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>12</v>
@@ -3097,37 +3196,37 @@
         <v>13</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AF13" s="5" t="s">
         <v>62</v>
@@ -3147,16 +3246,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>289</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>67</v>
@@ -3168,25 +3270,25 @@
         <v>44</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>13</v>
@@ -3198,37 +3300,37 @@
         <v>14</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="AF14" s="5" t="s">
         <v>62</v>
@@ -3248,16 +3350,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>308</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="0" t="s">
@@ -3267,25 +3372,25 @@
         <v>69</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>14</v>
@@ -3297,37 +3402,37 @@
         <v>15</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AF15" s="5" t="s">
         <v>62</v>
@@ -3347,16 +3452,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="0" t="s">
@@ -3366,25 +3474,25 @@
         <v>44</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>15</v>
@@ -3396,37 +3504,37 @@
         <v>16</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AF16" s="5" t="s">
         <v>62</v>
@@ -3446,16 +3554,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>335</v>
+        <v>347</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>348</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>42</v>
@@ -3467,25 +3578,25 @@
         <v>69</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>7</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>16</v>
@@ -3497,37 +3608,37 @@
         <v>17</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="AF17" s="5" t="s">
         <v>62</v>
@@ -3547,16 +3658,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>368</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="0" t="s">
@@ -3566,25 +3680,25 @@
         <v>44</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>15</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>17</v>
@@ -3596,37 +3710,37 @@
         <v>18</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="AF18" s="5" t="s">
         <v>62</v>
@@ -3646,16 +3760,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>372</v>
+        <v>386</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>387</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>67</v>
@@ -3667,25 +3784,25 @@
         <v>69</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>18</v>
@@ -3697,37 +3814,37 @@
         <v>19</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="AF19" s="5" t="s">
         <v>62</v>
@@ -3747,16 +3864,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>405</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>406</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>42</v>
@@ -3768,25 +3888,25 @@
         <v>44</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>7</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>19</v>
@@ -3798,37 +3918,37 @@
         <v>20</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="AE20" s="0" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>62</v>
@@ -3848,10 +3968,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>408</v>
+        <v>424</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>425</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>40</v>
@@ -3869,25 +3992,25 @@
         <v>69</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>20</v>
@@ -3899,37 +4022,37 @@
         <v>21</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="AF21" s="5" t="s">
         <v>62</v>
@@ -3949,16 +4072,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>426</v>
+        <v>443</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>444</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>67</v>
@@ -3970,25 +4096,25 @@
         <v>44</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>21</v>
@@ -4000,37 +4126,37 @@
         <v>22</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AE22" s="0" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="AF22" s="5" t="s">
         <v>62</v>
@@ -4050,16 +4176,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>463</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>42</v>
@@ -4071,25 +4200,25 @@
         <v>69</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>7</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="P23" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>22</v>
@@ -4101,37 +4230,37 @@
         <v>23</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="AF23" s="5" t="s">
         <v>62</v>
@@ -4151,16 +4280,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>462</v>
+        <v>481</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>482</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>67</v>
@@ -4172,25 +4304,25 @@
         <v>44</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>8</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>23</v>
@@ -4202,37 +4334,37 @@
         <v>24</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AD24" s="0" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="AF24" s="5" t="s">
         <v>62</v>
@@ -4252,10 +4384,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>501</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
@@ -4273,25 +4408,25 @@
         <v>69</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>9</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>24</v>
@@ -4303,37 +4438,37 @@
         <v>25</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="AE25" s="0" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>62</v>
@@ -4353,16 +4488,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>498</v>
+        <v>519</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>520</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>42</v>
@@ -4374,25 +4512,25 @@
         <v>44</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>17</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>25</v>
@@ -4404,37 +4542,37 @@
         <v>26</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="AE26" s="0" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="AF26" s="5" t="s">
         <v>62</v>
@@ -4454,16 +4592,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>516</v>
+        <v>538</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>539</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>67</v>
@@ -4475,25 +4616,25 @@
         <v>69</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>8</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>74</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>26</v>
@@ -4505,37 +4646,37 @@
         <v>27</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="AF27" s="5" t="s">
         <v>62</v>
@@ -4555,16 +4696,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>534</v>
+        <v>556</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>558</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>67</v>
@@ -4576,25 +4720,25 @@
         <v>44</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>9</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>49</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>27</v>
@@ -4606,37 +4750,37 @@
         <v>28</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="AE28" s="0" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>62</v>

--- a/sampledata/sample_primary_cells.xlsx
+++ b/sampledata/sample_primary_cells.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="603">
   <si>
     <t>Facility ID</t>
   </si>
@@ -30,6 +30,9 @@
     <t>PC_Alternative_Name</t>
   </si>
   <si>
+    <t>PC_Alternative_ID</t>
+  </si>
+  <si>
     <t>PC_Organism</t>
   </si>
   <si>
@@ -138,6 +141,9 @@
     <t>ALT-Name1</t>
   </si>
   <si>
+    <t>PC_ALT_ID-1,PC_ALT_ID-1A</t>
+  </si>
+  <si>
     <t>Homo sapiens</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>ALT-Name2</t>
   </si>
   <si>
+    <t>PC_ALT_ID-2</t>
+  </si>
+  <si>
     <t>epithelial-like</t>
   </si>
   <si>
@@ -291,6 +300,9 @@
     <t>ALT-Name3</t>
   </si>
   <si>
+    <t>PC_ALT_ID-3</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
@@ -351,6 +363,9 @@
     <t>LPC4</t>
   </si>
   <si>
+    <t>PC_ALT_ID-4</t>
+  </si>
+  <si>
     <t>stomach</t>
   </si>
   <si>
@@ -411,6 +426,9 @@
     <t>LPC5</t>
   </si>
   <si>
+    <t>PC_ALT_ID-5</t>
+  </si>
+  <si>
     <t>prostate</t>
   </si>
   <si>
@@ -474,6 +492,9 @@
     <t>LPC6</t>
   </si>
   <si>
+    <t>PC_ALT_ID-6</t>
+  </si>
+  <si>
     <t>cervix</t>
   </si>
   <si>
@@ -534,6 +555,9 @@
     <t>LPC7</t>
   </si>
   <si>
+    <t>PC_ALT_ID-7</t>
+  </si>
+  <si>
     <t>head &amp; neck</t>
   </si>
   <si>
@@ -594,6 +618,9 @@
     <t>LPC8</t>
   </si>
   <si>
+    <t>PC_ALT_ID-8</t>
+  </si>
+  <si>
     <t>breast</t>
   </si>
   <si>
@@ -654,6 +681,9 @@
     <t>LPC9</t>
   </si>
   <si>
+    <t>PC_ALT_ID-9</t>
+  </si>
+  <si>
     <t>lung</t>
   </si>
   <si>
@@ -714,6 +744,9 @@
     <t>LPC10</t>
   </si>
   <si>
+    <t>PC_ALT_ID-10</t>
+  </si>
+  <si>
     <t>GC1132</t>
   </si>
   <si>
@@ -771,6 +804,9 @@
     <t>LPC11</t>
   </si>
   <si>
+    <t>PC_ALT_ID-11</t>
+  </si>
+  <si>
     <t>fibroblastic</t>
   </si>
   <si>
@@ -831,6 +867,9 @@
     <t>LPC12</t>
   </si>
   <si>
+    <t>PC_ALT_ID-12</t>
+  </si>
+  <si>
     <t>GC1134</t>
   </si>
   <si>
@@ -888,6 +927,9 @@
     <t>LPC13</t>
   </si>
   <si>
+    <t>PC_ALT_ID-13</t>
+  </si>
+  <si>
     <t>GC1135</t>
   </si>
   <si>
@@ -945,6 +987,9 @@
     <t>LPC14</t>
   </si>
   <si>
+    <t>PC_ALT_ID-14</t>
+  </si>
+  <si>
     <t>uterus</t>
   </si>
   <si>
@@ -1005,6 +1050,9 @@
     <t>LPC15</t>
   </si>
   <si>
+    <t>PC_ALT_ID-15</t>
+  </si>
+  <si>
     <t>liver</t>
   </si>
   <si>
@@ -1065,6 +1113,9 @@
     <t>LPC16</t>
   </si>
   <si>
+    <t>PC_ALT_ID-16</t>
+  </si>
+  <si>
     <t>intestine</t>
   </si>
   <si>
@@ -1125,6 +1176,9 @@
     <t>LPC17</t>
   </si>
   <si>
+    <t>PC_ALT_ID-17</t>
+  </si>
+  <si>
     <t>GC1139</t>
   </si>
   <si>
@@ -1182,6 +1236,9 @@
     <t>LPC18</t>
   </si>
   <si>
+    <t>PC_ALT_ID-18</t>
+  </si>
+  <si>
     <t>GC1140</t>
   </si>
   <si>
@@ -1239,6 +1296,9 @@
     <t>LPC19</t>
   </si>
   <si>
+    <t>PC_ALT_ID-19</t>
+  </si>
+  <si>
     <t>GC1141</t>
   </si>
   <si>
@@ -1296,6 +1356,9 @@
     <t>LPC20</t>
   </si>
   <si>
+    <t>PC_ALT_ID-20</t>
+  </si>
+  <si>
     <t>GC1142</t>
   </si>
   <si>
@@ -1353,6 +1416,9 @@
     <t>LPC21</t>
   </si>
   <si>
+    <t>PC_ALT_ID-21</t>
+  </si>
+  <si>
     <t>GC1143</t>
   </si>
   <si>
@@ -1410,6 +1476,9 @@
     <t>LPC22</t>
   </si>
   <si>
+    <t>PC_ALT_ID-22</t>
+  </si>
+  <si>
     <t>GC1144</t>
   </si>
   <si>
@@ -1467,6 +1536,9 @@
     <t>LPC23</t>
   </si>
   <si>
+    <t>PC_ALT_ID-23</t>
+  </si>
+  <si>
     <t>GC1145</t>
   </si>
   <si>
@@ -1524,6 +1596,9 @@
     <t>LPC24</t>
   </si>
   <si>
+    <t>PC_ALT_ID-24</t>
+  </si>
+  <si>
     <t>GC1146</t>
   </si>
   <si>
@@ -1581,6 +1656,9 @@
     <t>LPC25</t>
   </si>
   <si>
+    <t>PC_ALT_ID-25</t>
+  </si>
+  <si>
     <t>GC1147</t>
   </si>
   <si>
@@ -1638,6 +1716,9 @@
     <t>LPC26</t>
   </si>
   <si>
+    <t>PC_ALT_ID-26</t>
+  </si>
+  <si>
     <t>GC1148</t>
   </si>
   <si>
@@ -1693,6 +1774,9 @@
   </si>
   <si>
     <t>LPC27</t>
+  </si>
+  <si>
+    <t>PC_ALT_ID-27</t>
   </si>
   <si>
     <t>GC1149</t>
@@ -1866,10 +1950,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1971,7 +2055,7 @@
       <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -1980,2822 +2064,2906 @@
       <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>47</v>
+      <c r="N2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U2" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="V2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="AF2" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="AG2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>72</v>
+      <c r="N3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="V3" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>43</v>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>94</v>
+      <c r="N4" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="U4" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="V4" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>68</v>
+      <c r="G5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>114</v>
+      <c r="N5" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="U5" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="V5" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>62</v>
+        <v>131</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>135</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>135</v>
+      <c r="N6" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="R6" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U6" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="V6" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>62</v>
+        <v>153</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>157</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>68</v>
+      <c r="G7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>155</v>
+      <c r="N7" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="R7" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="S7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U7" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="V7" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>62</v>
+        <v>174</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>178</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>175</v>
+      <c r="N8" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="U8" s="0" t="s">
-        <v>178</v>
-      </c>
       <c r="V8" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>62</v>
+        <v>195</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>196</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>199</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>200</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>195</v>
+      <c r="N9" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="R9" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="U9" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="V9" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF9" s="5" t="s">
-        <v>62</v>
+        <v>216</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>220</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>221</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>43</v>
+      <c r="G10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>215</v>
+      <c r="N10" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="R10" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="U10" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="V10" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>62</v>
+        <v>237</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>238</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>241</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>242</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>68</v>
+      <c r="G11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>234</v>
+      <c r="N11" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="R11" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U11" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="V11" s="0" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>62</v>
+        <v>257</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>258</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>261</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>262</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="L12" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>254</v>
+      <c r="N12" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="R12" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U12" s="0" t="s">
-        <v>257</v>
-      </c>
       <c r="V12" s="0" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF12" s="5" t="s">
-        <v>62</v>
+        <v>278</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>279</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>282</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="M13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>273</v>
+      <c r="N13" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="R13" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U13" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="V13" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF13" s="5" t="s">
-        <v>62</v>
+        <v>298</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>299</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ13" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>302</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>303</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="M14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>292</v>
+      <c r="N14" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>49</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="R14" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="U14" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="V14" s="0" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF14" s="5" t="s">
-        <v>62</v>
+        <v>318</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>319</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>322</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>323</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="0" t="s">
-        <v>68</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="L15" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>312</v>
+      <c r="N15" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="R15" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="U15" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="V15" s="0" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF15" s="5" t="s">
-        <v>62</v>
+        <v>339</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>340</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>343</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>344</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="M16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>332</v>
+      <c r="N16" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="R16" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="U16" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="V16" s="0" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>62</v>
+        <v>360</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>361</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>364</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>365</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>68</v>
+      <c r="G17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="L17" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="M17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>352</v>
+      <c r="N17" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="R17" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="U17" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="V17" s="0" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>62</v>
+        <v>381</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>382</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>385</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>386</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="M18" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>371</v>
+      <c r="N18" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>49</v>
+        <v>390</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="R18" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="U18" s="0" t="s">
-        <v>374</v>
-      </c>
       <c r="V18" s="0" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF18" s="5" t="s">
-        <v>62</v>
+        <v>401</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>402</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>405</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>406</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="L19" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="M19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>390</v>
+      <c r="N19" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="R19" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="U19" s="0" t="s">
-        <v>393</v>
-      </c>
       <c r="V19" s="0" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF19" s="5" t="s">
-        <v>62</v>
+        <v>421</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>422</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>425</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>426</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>43</v>
+      <c r="G20" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="L20" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="M20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>409</v>
+      <c r="N20" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>49</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="R20" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U20" s="0" t="s">
-        <v>412</v>
-      </c>
       <c r="V20" s="0" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="AE20" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>62</v>
+        <v>441</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>442</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>445</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>446</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="L21" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="M21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>428</v>
+      <c r="N21" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>74</v>
+        <v>450</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="R21" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="S21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="U21" s="0" t="s">
-        <v>431</v>
-      </c>
       <c r="V21" s="0" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>62</v>
+        <v>461</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>462</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>465</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>466</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="L22" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="M22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>447</v>
+      <c r="N22" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>49</v>
+        <v>470</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="R22" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="U22" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="V22" s="0" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="AE22" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF22" s="5" t="s">
-        <v>62</v>
+        <v>481</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>482</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>485</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>486</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>68</v>
+      <c r="G23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="L23" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="M23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>466</v>
+      <c r="N23" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="R23" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="U23" s="0" t="s">
-        <v>469</v>
-      </c>
       <c r="V23" s="0" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF23" s="5" t="s">
-        <v>62</v>
+        <v>501</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>502</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>505</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>506</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="L24" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="M24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>485</v>
+      <c r="N24" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>49</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="R24" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="U24" s="0" t="s">
-        <v>488</v>
-      </c>
       <c r="V24" s="0" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="AD24" s="0" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF24" s="5" t="s">
-        <v>62</v>
+        <v>521</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>522</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>525</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>526</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="L25" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="M25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>504</v>
+      <c r="N25" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>74</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="R25" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="S25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="U25" s="0" t="s">
-        <v>507</v>
-      </c>
       <c r="V25" s="0" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="AE25" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="AF25" s="5" t="s">
-        <v>62</v>
+        <v>541</v>
+      </c>
+      <c r="AF25" s="0" t="s">
+        <v>542</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>545</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>546</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>43</v>
+      <c r="G26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="L26" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="M26" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>523</v>
+      <c r="N26" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>49</v>
+        <v>550</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="R26" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="S26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="U26" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="V26" s="0" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="AE26" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="AF26" s="5" t="s">
-        <v>62</v>
+        <v>561</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>565</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>566</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="L27" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="M27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>542</v>
+      <c r="N27" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>74</v>
+        <v>570</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="R27" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="S27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="U27" s="0" t="s">
-        <v>545</v>
-      </c>
       <c r="V27" s="0" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF27" s="5" t="s">
-        <v>62</v>
+        <v>581</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>582</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>585</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>586</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="L28" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="M28" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>561</v>
+      <c r="N28" s="4" t="s">
+        <v>588</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>49</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="R28" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="U28" s="0" t="s">
-        <v>564</v>
-      </c>
       <c r="V28" s="0" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="AE28" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="AF28" s="5" t="s">
-        <v>62</v>
+        <v>601</v>
+      </c>
+      <c r="AF28" s="0" t="s">
+        <v>602</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5195,2394 +5363,2394 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/sample_primary_cells.xlsx
+++ b/sampledata/sample_primary_cells.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="631">
   <si>
     <t>Facility ID</t>
   </si>
@@ -90,6 +90,9 @@
     <t>PC_Molecular_Features</t>
   </si>
   <si>
+    <t>PC_Production_Details</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>PC_Molecular_Features 1</t>
   </si>
   <si>
+    <t>production details 1</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 1</t>
   </si>
   <si>
@@ -264,6 +270,9 @@
     <t>PC_Molecular_Features 2</t>
   </si>
   <si>
+    <t>production details 2</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 2</t>
   </si>
   <si>
@@ -330,6 +339,9 @@
     <t>PC_Molecular_Features 3</t>
   </si>
   <si>
+    <t>production details 3</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 3</t>
   </si>
   <si>
@@ -393,6 +405,9 @@
     <t>PC_Molecular_Features 4</t>
   </si>
   <si>
+    <t>production details 4</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 4</t>
   </si>
   <si>
@@ -459,6 +474,9 @@
     <t>PC_Molecular_Features 5</t>
   </si>
   <si>
+    <t>production details 5</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 5</t>
   </si>
   <si>
@@ -522,6 +540,9 @@
     <t>PC_Molecular_Features 6</t>
   </si>
   <si>
+    <t>production details 6</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 6</t>
   </si>
   <si>
@@ -585,6 +606,9 @@
     <t>PC_Molecular_Features 7</t>
   </si>
   <si>
+    <t>production details 7</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 7</t>
   </si>
   <si>
@@ -648,6 +672,9 @@
     <t>PC_Molecular_Features 8</t>
   </si>
   <si>
+    <t>production details 8</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 8</t>
   </si>
   <si>
@@ -711,6 +738,9 @@
     <t>PC_Molecular_Features 9</t>
   </si>
   <si>
+    <t>production details 9</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 9</t>
   </si>
   <si>
@@ -771,6 +801,9 @@
     <t>PC_Molecular_Features 10</t>
   </si>
   <si>
+    <t>production details 10</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 10</t>
   </si>
   <si>
@@ -834,6 +867,9 @@
     <t>PC_Molecular_Features 11</t>
   </si>
   <si>
+    <t>production details 11</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 11</t>
   </si>
   <si>
@@ -894,6 +930,9 @@
     <t>PC_Molecular_Features 12</t>
   </si>
   <si>
+    <t>production details 12</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 12</t>
   </si>
   <si>
@@ -954,6 +993,9 @@
     <t>PC_Molecular_Features 13</t>
   </si>
   <si>
+    <t>production details 13</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 13</t>
   </si>
   <si>
@@ -1017,6 +1059,9 @@
     <t>PC_Molecular_Features 14</t>
   </si>
   <si>
+    <t>production details 14</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 14</t>
   </si>
   <si>
@@ -1080,6 +1125,9 @@
     <t>PC_Molecular_Features 15</t>
   </si>
   <si>
+    <t>production details 15</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 15</t>
   </si>
   <si>
@@ -1143,6 +1191,9 @@
     <t>PC_Molecular_Features 16</t>
   </si>
   <si>
+    <t>production details 16</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 16</t>
   </si>
   <si>
@@ -1203,6 +1254,9 @@
     <t>PC_Molecular_Features 17</t>
   </si>
   <si>
+    <t>production details 17</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 17</t>
   </si>
   <si>
@@ -1263,6 +1317,9 @@
     <t>PC_Molecular_Features 18</t>
   </si>
   <si>
+    <t>production details 18</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 18</t>
   </si>
   <si>
@@ -1323,6 +1380,9 @@
     <t>PC_Molecular_Features 19</t>
   </si>
   <si>
+    <t>production details 19</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 19</t>
   </si>
   <si>
@@ -1383,6 +1443,9 @@
     <t>PC_Molecular_Features 20</t>
   </si>
   <si>
+    <t>production details 20</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 20</t>
   </si>
   <si>
@@ -1443,6 +1506,9 @@
     <t>PC_Molecular_Features 21</t>
   </si>
   <si>
+    <t>production details 21</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 21</t>
   </si>
   <si>
@@ -1503,6 +1569,9 @@
     <t>PC_Molecular_Features 22</t>
   </si>
   <si>
+    <t>production details 22</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 22</t>
   </si>
   <si>
@@ -1563,6 +1632,9 @@
     <t>PC_Molecular_Features 23</t>
   </si>
   <si>
+    <t>production details 23</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 23</t>
   </si>
   <si>
@@ -1623,6 +1695,9 @@
     <t>PC_Molecular_Features 24</t>
   </si>
   <si>
+    <t>production details 24</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 24</t>
   </si>
   <si>
@@ -1683,6 +1758,9 @@
     <t>PC_Molecular_Features 25</t>
   </si>
   <si>
+    <t>production details 25</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 25</t>
   </si>
   <si>
@@ -1743,6 +1821,9 @@
     <t>PC_Molecular_Features 26</t>
   </si>
   <si>
+    <t>production details 26</t>
+  </si>
+  <si>
     <t>PC_Genetic_Modification 26</t>
   </si>
   <si>
@@ -1801,6 +1882,9 @@
   </si>
   <si>
     <t>PC_Molecular_Features 27</t>
+  </si>
+  <si>
+    <t>production details 27</t>
   </si>
   <si>
     <t>PC_Genetic_Modification 27</t>
@@ -1917,15 +2001,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1950,10 +2034,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL1101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2034,7 +2118,7 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="0" t="s">
@@ -2058,73 +2142,76 @@
       <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>48</v>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>1</v>
@@ -2136,105 +2223,108 @@
         <v>2</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="AG2" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="AH2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>74</v>
+      <c r="N3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>2</v>
@@ -2246,105 +2336,108 @@
         <v>3</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>97</v>
+      <c r="N4" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>3</v>
@@ -2356,102 +2449,105 @@
         <v>4</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>118</v>
+      <c r="N5" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>4</v>
@@ -2463,102 +2559,105 @@
         <v>5</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>64</v>
+        <v>136</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>140</v>
+      <c r="N6" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>5</v>
@@ -2570,102 +2669,105 @@
         <v>6</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>64</v>
+        <v>159</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>161</v>
+      <c r="N7" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>6</v>
@@ -2677,102 +2779,105 @@
         <v>7</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>64</v>
+        <v>181</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>182</v>
+      <c r="N8" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>7</v>
@@ -2784,102 +2889,105 @@
         <v>8</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>64</v>
+        <v>203</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>204</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>203</v>
+      <c r="N9" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>8</v>
@@ -2891,102 +2999,105 @@
         <v>9</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>64</v>
+        <v>225</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>226</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>224</v>
+      <c r="N10" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>9</v>
@@ -2998,102 +3109,105 @@
         <v>10</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>64</v>
+        <v>247</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>248</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>244</v>
+      <c r="N11" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>10</v>
@@ -3105,102 +3219,105 @@
         <v>11</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>269</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>265</v>
+      <c r="N12" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>11</v>
@@ -3212,102 +3329,105 @@
         <v>12</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="AG12" s="5" t="s">
-        <v>64</v>
+        <v>290</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>291</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>285</v>
+      <c r="N13" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>12</v>
@@ -3319,102 +3439,105 @@
         <v>13</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>64</v>
+        <v>311</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>312</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ13" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>305</v>
+      <c r="N14" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>13</v>
@@ -3426,100 +3549,103 @@
         <v>14</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>64</v>
+        <v>332</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>333</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I15" s="4"/>
+        <v>338</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>326</v>
+      <c r="N15" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>14</v>
@@ -3531,100 +3657,103 @@
         <v>15</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG15" s="5" t="s">
-        <v>64</v>
+        <v>354</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>355</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>347</v>
+      <c r="N16" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>15</v>
@@ -3636,102 +3765,105 @@
         <v>16</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>64</v>
+        <v>376</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>377</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>368</v>
+      <c r="N17" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>16</v>
@@ -3743,100 +3875,103 @@
         <v>17</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>64</v>
+        <v>398</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>399</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>388</v>
+      <c r="N18" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>17</v>
@@ -3848,102 +3983,105 @@
         <v>18</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="AF18" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>64</v>
+        <v>419</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>420</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>408</v>
+      <c r="N19" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>18</v>
@@ -3955,102 +4093,105 @@
         <v>19</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>64</v>
+        <v>440</v>
+      </c>
+      <c r="AG19" s="0" t="s">
+        <v>441</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>428</v>
+      <c r="N20" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>19</v>
@@ -4062,102 +4203,105 @@
         <v>20</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="AE20" s="0" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>64</v>
+        <v>461</v>
+      </c>
+      <c r="AG20" s="0" t="s">
+        <v>462</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>448</v>
+      <c r="N21" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="S21" s="0" t="n">
         <v>20</v>
@@ -4169,102 +4313,105 @@
         <v>21</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>64</v>
+        <v>482</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>483</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>468</v>
+      <c r="N22" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>21</v>
@@ -4276,102 +4423,105 @@
         <v>22</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="AE22" s="0" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>64</v>
+        <v>503</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>504</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>488</v>
+      <c r="N23" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>22</v>
@@ -4383,102 +4533,105 @@
         <v>23</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="AG23" s="5" t="s">
-        <v>64</v>
+        <v>524</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>525</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>508</v>
+      <c r="N24" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="S24" s="0" t="n">
         <v>23</v>
@@ -4490,102 +4643,105 @@
         <v>24</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="AD24" s="0" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="AG24" s="5" t="s">
-        <v>64</v>
+        <v>545</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>546</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N25" s="4" t="s">
-        <v>528</v>
+      <c r="N25" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="S25" s="0" t="n">
         <v>24</v>
@@ -4597,102 +4753,105 @@
         <v>25</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="AE25" s="0" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="AF25" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>64</v>
+        <v>566</v>
+      </c>
+      <c r="AG25" s="0" t="s">
+        <v>567</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>548</v>
+      <c r="N26" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>25</v>
@@ -4704,102 +4863,105 @@
         <v>26</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="AE26" s="0" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="AF26" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG26" s="5" t="s">
-        <v>64</v>
+        <v>587</v>
+      </c>
+      <c r="AG26" s="0" t="s">
+        <v>588</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>568</v>
+      <c r="N27" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>26</v>
@@ -4811,102 +4973,105 @@
         <v>27</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="AF27" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="AG27" s="5" t="s">
-        <v>64</v>
+        <v>608</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>609</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>588</v>
+      <c r="N28" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="S28" s="0" t="n">
         <v>27</v>
@@ -4918,54 +5083,594 @@
         <v>28</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="AE28" s="0" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="AF28" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG28" s="5" t="s">
-        <v>64</v>
+        <v>629</v>
+      </c>
+      <c r="AG28" s="0" t="s">
+        <v>630</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1017" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1019" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1021" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1023" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1025" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1027" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1029" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1031" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1033" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1035" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1037" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1039" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1041" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1043" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1045" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1049" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1051" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1053" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1055" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1057" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1059" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1061" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1063" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1065" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1067" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1069" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1071" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1073" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1075" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1077" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1079" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1081" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1083" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1085" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1087" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1089" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1091" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1093" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1095" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1097" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1099" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7111,646 +7816,646 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/sample_primary_cells.xlsx
+++ b/sampledata/sample_primary_cells.xlsx
@@ -12,11 +12,16 @@
     <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="679">
   <si>
     <t>Facility ID</t>
   </si>
@@ -129,6 +134,9 @@
     <t>Most Recent Update</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>HMSL60001</t>
   </si>
   <si>
@@ -213,6 +221,9 @@
     <t>2016-01-05</t>
   </si>
   <si>
+    <t>PC test comment 1</t>
+  </si>
+  <si>
     <t>HMSL60002</t>
   </si>
   <si>
@@ -288,6 +299,9 @@
     <t>PC_Cell_Markers 2</t>
   </si>
   <si>
+    <t>PC test comment 2</t>
+  </si>
+  <si>
     <t>HMSL60003</t>
   </si>
   <si>
@@ -354,6 +368,9 @@
     <t>PC_Cell_Markers 3</t>
   </si>
   <si>
+    <t>PC test comment 3</t>
+  </si>
+  <si>
     <t>HMSL60004</t>
   </si>
   <si>
@@ -417,6 +434,9 @@
     <t>PC_Cell_Markers 4</t>
   </si>
   <si>
+    <t>PC test comment 4</t>
+  </si>
+  <si>
     <t>HMSL60005</t>
   </si>
   <si>
@@ -483,6 +503,9 @@
     <t>PC_Cell_Markers 5</t>
   </si>
   <si>
+    <t>PC test comment 5</t>
+  </si>
+  <si>
     <t>HMSL60006</t>
   </si>
   <si>
@@ -546,6 +569,9 @@
     <t>PC_Cell_Markers 6</t>
   </si>
   <si>
+    <t>PC test comment 6</t>
+  </si>
+  <si>
     <t>HMSL60007</t>
   </si>
   <si>
@@ -609,6 +635,9 @@
     <t>PC_Cell_Markers 7</t>
   </si>
   <si>
+    <t>PC test comment 7</t>
+  </si>
+  <si>
     <t>HMSL60008</t>
   </si>
   <si>
@@ -669,6 +698,9 @@
     <t>PC_Cell_Markers 8</t>
   </si>
   <si>
+    <t>PC test comment 8</t>
+  </si>
+  <si>
     <t>HMSL60009</t>
   </si>
   <si>
@@ -729,6 +761,9 @@
     <t>PC_Cell_Markers 9</t>
   </si>
   <si>
+    <t>PC test comment 9</t>
+  </si>
+  <si>
     <t>HMSL60010</t>
   </si>
   <si>
@@ -786,6 +821,9 @@
     <t>PC_Cell_Markers 10</t>
   </si>
   <si>
+    <t>PC test comment 10</t>
+  </si>
+  <si>
     <t>HMSL60011</t>
   </si>
   <si>
@@ -846,6 +884,9 @@
     <t>PC_Cell_Markers 11</t>
   </si>
   <si>
+    <t>PC test comment 11</t>
+  </si>
+  <si>
     <t>HMSL60012</t>
   </si>
   <si>
@@ -903,6 +944,9 @@
     <t>PC_Cell_Markers 12</t>
   </si>
   <si>
+    <t>PC test comment 12</t>
+  </si>
+  <si>
     <t>HMSL60013</t>
   </si>
   <si>
@@ -960,6 +1004,9 @@
     <t>PC_Cell_Markers 13</t>
   </si>
   <si>
+    <t>PC test comment 13</t>
+  </si>
+  <si>
     <t>HMSL60014</t>
   </si>
   <si>
@@ -1020,6 +1067,9 @@
     <t>PC_Cell_Markers 14</t>
   </si>
   <si>
+    <t>PC test comment 14</t>
+  </si>
+  <si>
     <t>HMSL60015</t>
   </si>
   <si>
@@ -1080,6 +1130,9 @@
     <t>PC_Cell_Markers 15</t>
   </si>
   <si>
+    <t>PC test comment 15</t>
+  </si>
+  <si>
     <t>HMSL60016</t>
   </si>
   <si>
@@ -1140,6 +1193,9 @@
     <t>PC_Cell_Markers 16</t>
   </si>
   <si>
+    <t>PC test comment 16</t>
+  </si>
+  <si>
     <t>HMSL60017</t>
   </si>
   <si>
@@ -1197,6 +1253,9 @@
     <t>PC_Cell_Markers 17</t>
   </si>
   <si>
+    <t>PC test comment 17</t>
+  </si>
+  <si>
     <t>HMSL60018</t>
   </si>
   <si>
@@ -1254,6 +1313,9 @@
     <t>PC_Cell_Markers 18</t>
   </si>
   <si>
+    <t>PC test comment 18</t>
+  </si>
+  <si>
     <t>HMSL60019</t>
   </si>
   <si>
@@ -1311,6 +1373,9 @@
     <t>PC_Cell_Markers 19</t>
   </si>
   <si>
+    <t>PC test comment 19</t>
+  </si>
+  <si>
     <t>HMSL60020</t>
   </si>
   <si>
@@ -1368,6 +1433,9 @@
     <t>PC_Cell_Markers 20</t>
   </si>
   <si>
+    <t>PC test comment 20</t>
+  </si>
+  <si>
     <t>HMSL60021</t>
   </si>
   <si>
@@ -1425,6 +1493,9 @@
     <t>PC_Cell_Markers 21</t>
   </si>
   <si>
+    <t>PC test comment 21</t>
+  </si>
+  <si>
     <t>HMSL60022</t>
   </si>
   <si>
@@ -1482,6 +1553,9 @@
     <t>PC_Cell_Markers 22</t>
   </si>
   <si>
+    <t>PC test comment 22</t>
+  </si>
+  <si>
     <t>HMSL60023</t>
   </si>
   <si>
@@ -1539,6 +1613,9 @@
     <t>PC_Cell_Markers 23</t>
   </si>
   <si>
+    <t>PC test comment 23</t>
+  </si>
+  <si>
     <t>HMSL60024</t>
   </si>
   <si>
@@ -1596,6 +1673,9 @@
     <t>PC_Cell_Markers 24</t>
   </si>
   <si>
+    <t>PC test comment 24</t>
+  </si>
+  <si>
     <t>HMSL60025</t>
   </si>
   <si>
@@ -1653,6 +1733,9 @@
     <t>PC_Cell_Markers 25</t>
   </si>
   <si>
+    <t>PC test comment 25</t>
+  </si>
+  <si>
     <t>HMSL60026</t>
   </si>
   <si>
@@ -1710,6 +1793,9 @@
     <t>PC_Cell_Markers 26</t>
   </si>
   <si>
+    <t>PC test comment 26</t>
+  </si>
+  <si>
     <t>HMSL60027</t>
   </si>
   <si>
@@ -1765,6 +1851,9 @@
   </si>
   <si>
     <t>PC_Cell_Markers 27</t>
+  </si>
+  <si>
+    <t>PC test comment 27</t>
   </si>
   <si>
     <t>CL_Name </t>
@@ -2141,19 +2230,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AE8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AL28" activeCellId="0" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,85 +2396,88 @@
       <c r="AK2" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="AL2" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>11</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>1</v>
@@ -2397,105 +2489,108 @@
         <v>2</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH3" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ3" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK3" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB4" s="0" t="n">
         <v>2</v>
@@ -2507,105 +2602,108 @@
         <v>3</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AB5" s="0" t="n">
         <v>3</v>
@@ -2617,102 +2715,105 @@
         <v>4</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB6" s="0" t="n">
         <v>4</v>
@@ -2724,102 +2825,105 @@
         <v>5</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH6" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ6" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>12</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AB7" s="0" t="n">
         <v>5</v>
@@ -2831,102 +2935,105 @@
         <v>6</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH7" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI7" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ7" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK7" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AB8" s="0" t="n">
         <v>6</v>
@@ -2938,102 +3045,105 @@
         <v>7</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AB9" s="0" t="n">
         <v>7</v>
@@ -3045,99 +3155,102 @@
         <v>8</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AB10" s="0" t="n">
         <v>8</v>
@@ -3149,99 +3262,102 @@
         <v>9</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH10" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI10" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ10" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK10" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>13</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AB11" s="0" t="n">
         <v>9</v>
@@ -3253,99 +3369,102 @@
         <v>10</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH11" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI11" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ11" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK11" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL11" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AB12" s="0" t="n">
         <v>10</v>
@@ -3357,99 +3476,102 @@
         <v>11</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AG12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL12" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AB13" s="0" t="n">
         <v>11</v>
@@ -3461,99 +3583,102 @@
         <v>12</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AG13" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH13" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI13" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ13" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK13" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL13" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="AB14" s="0" t="n">
         <v>12</v>
@@ -3565,99 +3690,102 @@
         <v>13</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI14" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ14" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK14" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL14" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AB15" s="0" t="n">
         <v>13</v>
@@ -3669,97 +3797,100 @@
         <v>14</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="AG15" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH15" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI15" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ15" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK15" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AB16" s="0" t="n">
         <v>14</v>
@@ -3771,97 +3902,100 @@
         <v>15</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AG16" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI16" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ16" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK16" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="AB17" s="0" t="n">
         <v>15</v>
@@ -3873,99 +4007,102 @@
         <v>16</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH17" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI17" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ17" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK17" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL17" s="0" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>7</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="AB18" s="0" t="n">
         <v>16</v>
@@ -3977,97 +4114,100 @@
         <v>17</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="AF18" s="0" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AG18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL18" s="0" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="AB19" s="0" t="n">
         <v>17</v>
@@ -4079,99 +4219,102 @@
         <v>18</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL19" s="0" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>6</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="AB20" s="0" t="n">
         <v>18</v>
@@ -4183,99 +4326,102 @@
         <v>19</v>
       </c>
       <c r="AE20" s="0" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AG20" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI20" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ20" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK20" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL20" s="0" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>7</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="AB21" s="0" t="n">
         <v>19</v>
@@ -4287,99 +4433,102 @@
         <v>20</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="AG21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL21" s="0" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>8</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="AB22" s="0" t="n">
         <v>20</v>
@@ -4391,99 +4540,102 @@
         <v>21</v>
       </c>
       <c r="AE22" s="0" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL22" s="0" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>16</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="AB23" s="0" t="n">
         <v>21</v>
@@ -4495,99 +4647,102 @@
         <v>22</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="AG23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>7</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="AB24" s="0" t="n">
         <v>22</v>
@@ -4599,99 +4754,102 @@
         <v>23</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="AG24" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI24" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ24" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK24" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>8</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="AB25" s="0" t="n">
         <v>23</v>
@@ -4703,99 +4861,102 @@
         <v>24</v>
       </c>
       <c r="AE25" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="AF25" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="AG25" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH25" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI25" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ25" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK25" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL25" s="0" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>9</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="AB26" s="0" t="n">
         <v>24</v>
@@ -4807,99 +4968,102 @@
         <v>25</v>
       </c>
       <c r="AE26" s="0" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="AF26" s="0" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="AG26" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH26" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI26" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ26" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK26" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL26" s="0" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>17</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="AB27" s="0" t="n">
         <v>25</v>
@@ -4911,99 +5075,102 @@
         <v>26</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="AF27" s="0" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="AG27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL27" s="0" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>8</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="AB28" s="0" t="n">
         <v>26</v>
@@ -5015,99 +5182,102 @@
         <v>27</v>
       </c>
       <c r="AE28" s="0" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="AF28" s="0" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="AG28" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH28" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI28" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ28" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK28" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL28" s="0" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>9</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="AA29" s="0" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="AB29" s="0" t="n">
         <v>27</v>
@@ -5119,25 +5289,28 @@
         <v>28</v>
       </c>
       <c r="AE29" s="0" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="AF29" s="0" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI29" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ29" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK29" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AL29" s="0" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -5164,25 +5337,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="4" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -5212,646 +5385,646 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
